--- a/data_excel/838.xlsx
+++ b/data_excel/838.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,11 +108,11 @@
     <t>2</t>
   </si>
   <si>
-    <t>-</t>
+    <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -669,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/838.xlsx
+++ b/data_excel/838.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>小宇</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +507,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -524,8 +536,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>30</v>
@@ -533,8 +545,8 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -672,12 +684,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
